--- a/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,321 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>110</v>
       </c>
     </row>
@@ -493,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,17 +803,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>270</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,30 +746,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B39" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -781,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,14 +873,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -871,6 +872,677 @@
       </c>
       <c r="B13" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-76.84605974825357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>338.5113811113455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-86.26067854119609</v>
+      </c>
+      <c r="D3" t="n">
+        <v>326.9242550845429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-96.74459733588594</v>
+      </c>
+      <c r="D4" t="n">
+        <v>335.5913599603011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>122</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-76.68405490100226</v>
+      </c>
+      <c r="D5" t="n">
+        <v>320.1033947606118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>122</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-91.82916880286858</v>
+      </c>
+      <c r="D6" t="n">
+        <v>330.9439037766107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>121</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-89.55202210515212</v>
+      </c>
+      <c r="D7" t="n">
+        <v>330.3772054680571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-110.1584177063978</v>
+      </c>
+      <c r="D8" t="n">
+        <v>317.7606563735312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-93.55372250633646</v>
+      </c>
+      <c r="D9" t="n">
+        <v>319.6237799651229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-88.444351284481</v>
+      </c>
+      <c r="D10" t="n">
+        <v>328.9034414929499</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-85.87369324569968</v>
+      </c>
+      <c r="D11" t="n">
+        <v>316.686767044467</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>118</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-87.29957445314554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>341.2162548556786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-100.642278505436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>324.0379495028477</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>117</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-93.43351520046348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>319.2509886170785</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>116</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-102.1032088197203</v>
+      </c>
+      <c r="D15" t="n">
+        <v>332.9292681232612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>115</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-104.0453531549205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>316.0568592692078</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>115</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-94.46490018719729</v>
+      </c>
+      <c r="D17" t="n">
+        <v>328.1664886406542</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>114</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-105.4350561320652</v>
+      </c>
+      <c r="D18" t="n">
+        <v>318.5249299906797</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>114</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-96.80060939583814</v>
+      </c>
+      <c r="D19" t="n">
+        <v>320.132270271609</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>113</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-101.1348390131342</v>
+      </c>
+      <c r="D20" t="n">
+        <v>324.4603380239112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>113</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-92.76785186171725</v>
+      </c>
+      <c r="D21" t="n">
+        <v>334.0135688530568</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>110</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-98.64840998862535</v>
+      </c>
+      <c r="D22" t="n">
+        <v>321.313633156797</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-108.1983232428198</v>
+      </c>
+      <c r="D23" t="n">
+        <v>323.7810885432965</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>109</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-96.04739354349871</v>
+      </c>
+      <c r="D24" t="n">
+        <v>321.0163686567577</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>108</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-97.2764900802232</v>
+      </c>
+      <c r="D25" t="n">
+        <v>324.2357379466874</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>108</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-116.394832997366</v>
+      </c>
+      <c r="D26" t="n">
+        <v>316.9659718290417</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>107</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-100.9995617612699</v>
+      </c>
+      <c r="D27" t="n">
+        <v>320.4987491109408</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>106</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-96.52167984752026</v>
+      </c>
+      <c r="D28" t="n">
+        <v>301.5058422564326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>106</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-93.11258382351402</v>
+      </c>
+      <c r="D29" t="n">
+        <v>313.4449462713008</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>105</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-112.556996605349</v>
+      </c>
+      <c r="D30" t="n">
+        <v>298.0075452183194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>104</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-102.9066431790916</v>
+      </c>
+      <c r="D31" t="n">
+        <v>306.6654447777082</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>103</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-88.69269291686815</v>
+      </c>
+      <c r="D32" t="n">
+        <v>306.9304617569896</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>103</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-103.4041313137168</v>
+      </c>
+      <c r="D33" t="n">
+        <v>308.8037991694947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>102</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-113.1419391679785</v>
+      </c>
+      <c r="D34" t="n">
+        <v>309.1181720909646</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>101</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-100.277018746593</v>
+      </c>
+      <c r="D35" t="n">
+        <v>318.8248146634285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-100.8774133289383</v>
+      </c>
+      <c r="D36" t="n">
+        <v>319.334753934934</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>99</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-107.4747673895341</v>
+      </c>
+      <c r="D37" t="n">
+        <v>313.2166496105365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>95</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-118.3565632672228</v>
+      </c>
+      <c r="D38" t="n">
+        <v>307.0658434744197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>94</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-121.1355715754816</v>
+      </c>
+      <c r="D39" t="n">
+        <v>305.595222133179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>94</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-115.8910952302836</v>
+      </c>
+      <c r="D40" t="n">
+        <v>296.2838216344215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>93</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-125.1747146487971</v>
+      </c>
+      <c r="D41" t="n">
+        <v>311.5305223157795</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>92</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-102.9467813166758</v>
+      </c>
+      <c r="D42" t="n">
+        <v>308.9563655129838</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>92</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-125.7362351038202</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293.619297796478</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>91</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-129.6634217478771</v>
+      </c>
+      <c r="D44" t="n">
+        <v>306.9476122548942</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-121.9629643715211</v>
+      </c>
+      <c r="D45" t="n">
+        <v>309.7841457348561</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-125.6232930469978</v>
+      </c>
+      <c r="D46" t="n">
+        <v>298.6174842711009</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN5J1XJ_po_data.xlsx
@@ -885,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,16 +904,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -922,12 +912,6 @@
       <c r="B2" t="n">
         <v>124</v>
       </c>
-      <c r="C2" t="n">
-        <v>-76.84605974825357</v>
-      </c>
-      <c r="D2" t="n">
-        <v>338.5113811113455</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -936,12 +920,6 @@
       <c r="B3" t="n">
         <v>123</v>
       </c>
-      <c r="C3" t="n">
-        <v>-86.26067854119609</v>
-      </c>
-      <c r="D3" t="n">
-        <v>326.9242550845429</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -950,12 +928,6 @@
       <c r="B4" t="n">
         <v>123</v>
       </c>
-      <c r="C4" t="n">
-        <v>-96.74459733588594</v>
-      </c>
-      <c r="D4" t="n">
-        <v>335.5913599603011</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -964,12 +936,6 @@
       <c r="B5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>-76.68405490100226</v>
-      </c>
-      <c r="D5" t="n">
-        <v>320.1033947606118</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -978,12 +944,6 @@
       <c r="B6" t="n">
         <v>122</v>
       </c>
-      <c r="C6" t="n">
-        <v>-91.82916880286858</v>
-      </c>
-      <c r="D6" t="n">
-        <v>330.9439037766107</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -992,12 +952,6 @@
       <c r="B7" t="n">
         <v>121</v>
       </c>
-      <c r="C7" t="n">
-        <v>-89.55202210515212</v>
-      </c>
-      <c r="D7" t="n">
-        <v>330.3772054680571</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1006,12 +960,6 @@
       <c r="B8" t="n">
         <v>120</v>
       </c>
-      <c r="C8" t="n">
-        <v>-110.1584177063978</v>
-      </c>
-      <c r="D8" t="n">
-        <v>317.7606563735312</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1020,12 +968,6 @@
       <c r="B9" t="n">
         <v>120</v>
       </c>
-      <c r="C9" t="n">
-        <v>-93.55372250633646</v>
-      </c>
-      <c r="D9" t="n">
-        <v>319.6237799651229</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1034,12 +976,6 @@
       <c r="B10" t="n">
         <v>119</v>
       </c>
-      <c r="C10" t="n">
-        <v>-88.444351284481</v>
-      </c>
-      <c r="D10" t="n">
-        <v>328.9034414929499</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1048,12 +984,6 @@
       <c r="B11" t="n">
         <v>118</v>
       </c>
-      <c r="C11" t="n">
-        <v>-85.87369324569968</v>
-      </c>
-      <c r="D11" t="n">
-        <v>316.686767044467</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1062,12 +992,6 @@
       <c r="B12" t="n">
         <v>118</v>
       </c>
-      <c r="C12" t="n">
-        <v>-87.29957445314554</v>
-      </c>
-      <c r="D12" t="n">
-        <v>341.2162548556786</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1076,12 +1000,6 @@
       <c r="B13" t="n">
         <v>117</v>
       </c>
-      <c r="C13" t="n">
-        <v>-100.642278505436</v>
-      </c>
-      <c r="D13" t="n">
-        <v>324.0379495028477</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1090,12 +1008,6 @@
       <c r="B14" t="n">
         <v>117</v>
       </c>
-      <c r="C14" t="n">
-        <v>-93.43351520046348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>319.2509886170785</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1104,12 +1016,6 @@
       <c r="B15" t="n">
         <v>116</v>
       </c>
-      <c r="C15" t="n">
-        <v>-102.1032088197203</v>
-      </c>
-      <c r="D15" t="n">
-        <v>332.9292681232612</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1118,12 +1024,6 @@
       <c r="B16" t="n">
         <v>115</v>
       </c>
-      <c r="C16" t="n">
-        <v>-104.0453531549205</v>
-      </c>
-      <c r="D16" t="n">
-        <v>316.0568592692078</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1132,12 +1032,6 @@
       <c r="B17" t="n">
         <v>115</v>
       </c>
-      <c r="C17" t="n">
-        <v>-94.46490018719729</v>
-      </c>
-      <c r="D17" t="n">
-        <v>328.1664886406542</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1146,12 +1040,6 @@
       <c r="B18" t="n">
         <v>114</v>
       </c>
-      <c r="C18" t="n">
-        <v>-105.4350561320652</v>
-      </c>
-      <c r="D18" t="n">
-        <v>318.5249299906797</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1160,12 +1048,6 @@
       <c r="B19" t="n">
         <v>114</v>
       </c>
-      <c r="C19" t="n">
-        <v>-96.80060939583814</v>
-      </c>
-      <c r="D19" t="n">
-        <v>320.132270271609</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1174,12 +1056,6 @@
       <c r="B20" t="n">
         <v>113</v>
       </c>
-      <c r="C20" t="n">
-        <v>-101.1348390131342</v>
-      </c>
-      <c r="D20" t="n">
-        <v>324.4603380239112</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1188,12 +1064,6 @@
       <c r="B21" t="n">
         <v>113</v>
       </c>
-      <c r="C21" t="n">
-        <v>-92.76785186171725</v>
-      </c>
-      <c r="D21" t="n">
-        <v>334.0135688530568</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1202,12 +1072,6 @@
       <c r="B22" t="n">
         <v>110</v>
       </c>
-      <c r="C22" t="n">
-        <v>-98.64840998862535</v>
-      </c>
-      <c r="D22" t="n">
-        <v>321.313633156797</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1216,12 +1080,6 @@
       <c r="B23" t="n">
         <v>109</v>
       </c>
-      <c r="C23" t="n">
-        <v>-108.1983232428198</v>
-      </c>
-      <c r="D23" t="n">
-        <v>323.7810885432965</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1230,12 +1088,6 @@
       <c r="B24" t="n">
         <v>109</v>
       </c>
-      <c r="C24" t="n">
-        <v>-96.04739354349871</v>
-      </c>
-      <c r="D24" t="n">
-        <v>321.0163686567577</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1244,12 +1096,6 @@
       <c r="B25" t="n">
         <v>108</v>
       </c>
-      <c r="C25" t="n">
-        <v>-97.2764900802232</v>
-      </c>
-      <c r="D25" t="n">
-        <v>324.2357379466874</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1258,12 +1104,6 @@
       <c r="B26" t="n">
         <v>108</v>
       </c>
-      <c r="C26" t="n">
-        <v>-116.394832997366</v>
-      </c>
-      <c r="D26" t="n">
-        <v>316.9659718290417</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1272,12 +1112,6 @@
       <c r="B27" t="n">
         <v>107</v>
       </c>
-      <c r="C27" t="n">
-        <v>-100.9995617612699</v>
-      </c>
-      <c r="D27" t="n">
-        <v>320.4987491109408</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1286,12 +1120,6 @@
       <c r="B28" t="n">
         <v>106</v>
       </c>
-      <c r="C28" t="n">
-        <v>-96.52167984752026</v>
-      </c>
-      <c r="D28" t="n">
-        <v>301.5058422564326</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1300,12 +1128,6 @@
       <c r="B29" t="n">
         <v>106</v>
       </c>
-      <c r="C29" t="n">
-        <v>-93.11258382351402</v>
-      </c>
-      <c r="D29" t="n">
-        <v>313.4449462713008</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1314,12 +1136,6 @@
       <c r="B30" t="n">
         <v>105</v>
       </c>
-      <c r="C30" t="n">
-        <v>-112.556996605349</v>
-      </c>
-      <c r="D30" t="n">
-        <v>298.0075452183194</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1328,12 +1144,6 @@
       <c r="B31" t="n">
         <v>104</v>
       </c>
-      <c r="C31" t="n">
-        <v>-102.9066431790916</v>
-      </c>
-      <c r="D31" t="n">
-        <v>306.6654447777082</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1342,12 +1152,6 @@
       <c r="B32" t="n">
         <v>103</v>
       </c>
-      <c r="C32" t="n">
-        <v>-88.69269291686815</v>
-      </c>
-      <c r="D32" t="n">
-        <v>306.9304617569896</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1356,12 +1160,6 @@
       <c r="B33" t="n">
         <v>103</v>
       </c>
-      <c r="C33" t="n">
-        <v>-103.4041313137168</v>
-      </c>
-      <c r="D33" t="n">
-        <v>308.8037991694947</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1370,12 +1168,6 @@
       <c r="B34" t="n">
         <v>102</v>
       </c>
-      <c r="C34" t="n">
-        <v>-113.1419391679785</v>
-      </c>
-      <c r="D34" t="n">
-        <v>309.1181720909646</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1384,12 +1176,6 @@
       <c r="B35" t="n">
         <v>101</v>
       </c>
-      <c r="C35" t="n">
-        <v>-100.277018746593</v>
-      </c>
-      <c r="D35" t="n">
-        <v>318.8248146634285</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1398,12 +1184,6 @@
       <c r="B36" t="n">
         <v>100</v>
       </c>
-      <c r="C36" t="n">
-        <v>-100.8774133289383</v>
-      </c>
-      <c r="D36" t="n">
-        <v>319.334753934934</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1412,12 +1192,6 @@
       <c r="B37" t="n">
         <v>99</v>
       </c>
-      <c r="C37" t="n">
-        <v>-107.4747673895341</v>
-      </c>
-      <c r="D37" t="n">
-        <v>313.2166496105365</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1426,12 +1200,6 @@
       <c r="B38" t="n">
         <v>95</v>
       </c>
-      <c r="C38" t="n">
-        <v>-118.3565632672228</v>
-      </c>
-      <c r="D38" t="n">
-        <v>307.0658434744197</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1440,12 +1208,6 @@
       <c r="B39" t="n">
         <v>94</v>
       </c>
-      <c r="C39" t="n">
-        <v>-121.1355715754816</v>
-      </c>
-      <c r="D39" t="n">
-        <v>305.595222133179</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1454,12 +1216,6 @@
       <c r="B40" t="n">
         <v>94</v>
       </c>
-      <c r="C40" t="n">
-        <v>-115.8910952302836</v>
-      </c>
-      <c r="D40" t="n">
-        <v>296.2838216344215</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1468,12 +1224,6 @@
       <c r="B41" t="n">
         <v>93</v>
       </c>
-      <c r="C41" t="n">
-        <v>-125.1747146487971</v>
-      </c>
-      <c r="D41" t="n">
-        <v>311.5305223157795</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1482,12 +1232,6 @@
       <c r="B42" t="n">
         <v>92</v>
       </c>
-      <c r="C42" t="n">
-        <v>-102.9467813166758</v>
-      </c>
-      <c r="D42" t="n">
-        <v>308.9563655129838</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1496,12 +1240,6 @@
       <c r="B43" t="n">
         <v>92</v>
       </c>
-      <c r="C43" t="n">
-        <v>-125.7362351038202</v>
-      </c>
-      <c r="D43" t="n">
-        <v>293.619297796478</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1510,12 +1248,6 @@
       <c r="B44" t="n">
         <v>91</v>
       </c>
-      <c r="C44" t="n">
-        <v>-129.6634217478771</v>
-      </c>
-      <c r="D44" t="n">
-        <v>306.9476122548942</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1524,12 +1256,6 @@
       <c r="B45" t="n">
         <v>91</v>
       </c>
-      <c r="C45" t="n">
-        <v>-121.9629643715211</v>
-      </c>
-      <c r="D45" t="n">
-        <v>309.7841457348561</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1537,12 +1263,6 @@
       </c>
       <c r="B46" t="n">
         <v>90</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-125.6232930469978</v>
-      </c>
-      <c r="D46" t="n">
-        <v>298.6174842711009</v>
       </c>
     </row>
   </sheetData>
